--- a/medicine/Enfance/Cécile_Bonbon/Cécile_Bonbon.xlsx
+++ b/medicine/Enfance/Cécile_Bonbon/Cécile_Bonbon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Bonbon</t>
+          <t>Cécile_Bonbon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cécile Bonbon  est une auteure et illustratrice française, dans les domaines de la communication et de la littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Bonbon</t>
+          <t>Cécile_Bonbon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a suivi une formation aux Beaux-Arts. Elle a d'abord travaillé dans le graphisme dans le milieu de la communication. Puis, devenue maman, elle commence à illustrer à partir de 1999 pour l'édition jeunesse. Elle a beaucoup travaillé autour du tissu. Elle a utilisé cette technique notamment pour Le Machin, ayant connu un grand succès éditorial.
 Plusieurs de ces livres ont été sélectionnés pour le prix des Incos : Le Gros Goûter (27e Prix, Maternelle), Le machin (20e Prix, Maternelle).
 Elle collabore à divers magazines et crée des rubriques, notamment dans Julie, Manon, J’apprends à Lire, Petites Mains, Petites histoires pour les tout-petits.
-Elle a vécu à Barcelone, Perpignan, et à proximité de Toulouse[1],[2],[3],[4],[5].
+Elle a vécu à Barcelone, Perpignan, et à proximité de Toulouse.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9cile_Bonbon</t>
+          <t>Cécile_Bonbon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteure et illustratrice
-Petit tour (Éditions du Rouergue 2000)
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Petit tour (Éditions du Rouergue 2000)
 Bonbon (Éditions du Rouergue 2000)
 La Bande à Doudou, Milan, 2003
 Cose que te cose (Imaginarium Espagne 2007)
@@ -570,18 +589,52 @@
 En colo avec les abeilles (2018)
 Qu'est-ce que je suis aujourd'hui ? (2018)
 Dans ma maison (2019)
-Petit (2019)
-Seulement illustratrice
-La Sieste de Kokala. - Une histoire à jouer, illustrée par Cécile Bonbon. - [1] (2005)
-Pépita à la crèche. - une histoire à jouer, illustrée par Cécile Bonbon. - [1] (2006)
-Kokala ne veut pas. - Une histoire à jouer, illustrée par Cécile Bonbon. - [1] (2006)
-Kokala ne veut pas. - Une histoire à jouer, illustrée par Cécile Bonbon. - [1] (2006)
+Petit (2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cécile_Bonbon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9cile_Bonbon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Seulement illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Sieste de Kokala. - Une histoire à jouer, illustrée par Cécile Bonbon. -  (2005)
+Pépita à la crèche. - une histoire à jouer, illustrée par Cécile Bonbon. -  (2006)
+Kokala ne veut pas. - Une histoire à jouer, illustrée par Cécile Bonbon. -  (2006)
+Kokala ne veut pas. - Une histoire à jouer, illustrée par Cécile Bonbon. -  (2006)
 Le rêve D’Olivette, Hatier, 2007
 Le machin, Didier Jeunesse, 2007, réédité en 2008, 2009, 2011, 2018
 Tu n'as pas de cœur ! Bilboquet, 2008
 Oh ! (2008)
 The thing (2008)
-Il fait froid, Kokola !. - Une histoire à jouer, illustrée par Cécile Bonbon. - [1] (2008)
+Il fait froid, Kokola !. - Une histoire à jouer, illustrée par Cécile Bonbon. -  (2008)
 À la volette (Didier Jeunesse, 2009)
 An tamm pilhoù (2013)
 Philo (2013)
